--- a/biology/Botanique/Jardin_public_Fernand-Chapsal/Jardin_public_Fernand-Chapsal.xlsx
+++ b/biology/Botanique/Jardin_public_Fernand-Chapsal/Jardin_public_Fernand-Chapsal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin public Fernand-Chapsal (anciennement parc Bassompierre) est l'un des principaux espaces verts de la ville de Saintes, dans le département français de la Charente-Maritime. Il doit son nom à Fernand Chapsal, maire de Saintes de 1919 à 1939. 
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'étend le long des berges de la Charente, depuis la place Bassompierre jusqu'au parc Pierre-Mendès-France et à la prairie de la Palu qui en sont les prolongements naturels. Aménagé en 1925 par l'architecte-paysagiste Bonnet, le parc forme un réseau d'allées arborées, de parterres de fleurs et d'espaces gazonnés. Il est composé de deux espaces aux styles distincts : d'une part un jardin à la française, de l'autre un jardin à l'anglaise[1]. Il accueille également des attractions pour les enfants (toboggan, balançoire), un mini-parc animalier (chèvres, canards, oiseaux) ainsi qu'une ancienne orangerie reconvertie en salon de thé[2]. Des pontons en bois servent à l'accueil d'embarcations de tourisme.
-Établi sur la rive droite, le jardin public est accessible depuis le centre-ville par une passerelle piétonne sur la Charente aménagée en 1927. Le parc accueille par ailleurs un kiosque à musique édifié en 1928 par l'entrepreneur Roginski sur les plans de l'architecte Georges Baustert[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'étend le long des berges de la Charente, depuis la place Bassompierre jusqu'au parc Pierre-Mendès-France et à la prairie de la Palu qui en sont les prolongements naturels. Aménagé en 1925 par l'architecte-paysagiste Bonnet, le parc forme un réseau d'allées arborées, de parterres de fleurs et d'espaces gazonnés. Il est composé de deux espaces aux styles distincts : d'une part un jardin à la française, de l'autre un jardin à l'anglaise. Il accueille également des attractions pour les enfants (toboggan, balançoire), un mini-parc animalier (chèvres, canards, oiseaux) ainsi qu'une ancienne orangerie reconvertie en salon de thé. Des pontons en bois servent à l'accueil d'embarcations de tourisme.
+Établi sur la rive droite, le jardin public est accessible depuis le centre-ville par une passerelle piétonne sur la Charente aménagée en 1927. Le parc accueille par ailleurs un kiosque à musique édifié en 1928 par l'entrepreneur Roginski sur les plans de l'architecte Georges Baustert.
 			Le kiosque.
 			Plaque en hommage à Chapsal.
 			Monument à Goulebenéze.
